--- a/REGULAR/PICNIC GROVE/JAVIER, NOEL.xlsx
+++ b/REGULAR/PICNIC GROVE/JAVIER, NOEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>UT(0-1-24)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/27-29/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/9,10,16-18/2023</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1024,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K395" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K396" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1341,12 +1353,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K395"/>
+  <dimension ref="A2:K396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A254" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A269" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F265" sqref="F265"/>
+      <selection pane="bottomLeft" activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1521,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>288.11099999999999</v>
+        <v>290.61099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1519,7 +1531,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>422.91700000000003</v>
+        <v>427.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7032,13 +7044,15 @@
       <c r="B279" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="13"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D279" s="39"/>
       <c r="E279" s="9"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G279" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H279" s="39">
         <v>1</v>
@@ -7054,13 +7068,15 @@
         <v>45108</v>
       </c>
       <c r="B280" s="20"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D280" s="39"/>
       <c r="E280" s="9"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G280" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
@@ -7072,13 +7088,15 @@
         <v>45139</v>
       </c>
       <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D281" s="39"/>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G281" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
@@ -7090,13 +7108,15 @@
         <v>45170</v>
       </c>
       <c r="B282" s="20"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
@@ -7107,37 +7127,53 @@
       <c r="A283" s="40">
         <v>45200</v>
       </c>
-      <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
+      <c r="B283" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D283" s="39"/>
       <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H283" s="39"/>
+      <c r="G283" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H283" s="39">
+        <v>3</v>
+      </c>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
-      <c r="K283" s="20"/>
+      <c r="K283" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>45231</v>
       </c>
-      <c r="B284" s="20"/>
-      <c r="C284" s="13"/>
-      <c r="D284" s="39"/>
+      <c r="B284" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D284" s="39">
+        <v>5</v>
+      </c>
       <c r="E284" s="9"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G284" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="20"/>
+      <c r="K284" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
@@ -7158,15 +7194,15 @@
       <c r="K285" s="20"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="40">
-        <v>45292</v>
+      <c r="A286" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="42" t="str">
+      <c r="G286" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -7177,7 +7213,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7195,7 +7231,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7213,7 +7249,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -7231,7 +7267,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -7249,7 +7285,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -7267,7 +7303,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -7285,7 +7321,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -7303,7 +7339,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -7321,7 +7357,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -7339,7 +7375,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -7357,7 +7393,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -7375,7 +7411,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -7393,7 +7429,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -7411,7 +7447,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -7429,7 +7465,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -7447,7 +7483,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -7465,7 +7501,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -7483,7 +7519,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -7501,7 +7537,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -7519,7 +7555,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -7537,7 +7573,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -7555,7 +7591,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -7573,7 +7609,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -7591,7 +7627,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -7609,7 +7645,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -7627,7 +7663,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -7645,7 +7681,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -7663,7 +7699,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -7681,7 +7717,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -7699,7 +7735,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -7717,7 +7753,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -7735,7 +7771,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -7753,7 +7789,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -7770,7 +7806,9 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
+      <c r="A320" s="40">
+        <v>46296</v>
+      </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -8970,20 +9008,36 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="41"/>
-      <c r="B395" s="15"/>
-      <c r="C395" s="42"/>
-      <c r="D395" s="43"/>
-      <c r="E395" s="50"/>
-      <c r="F395" s="15"/>
+      <c r="A395" s="40"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="39"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
       <c r="G395" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H395" s="43"/>
-      <c r="I395" s="50"/>
-      <c r="J395" s="12"/>
-      <c r="K395" s="15"/>
+      <c r="H395" s="39"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="41"/>
+      <c r="B396" s="15"/>
+      <c r="C396" s="42"/>
+      <c r="D396" s="43"/>
+      <c r="E396" s="50"/>
+      <c r="F396" s="15"/>
+      <c r="G396" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H396" s="43"/>
+      <c r="I396" s="50"/>
+      <c r="J396" s="12"/>
+      <c r="K396" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
